--- a/Code/Results/Cases/Case_4_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_226/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.16011082751622</v>
+        <v>13.94166074358692</v>
       </c>
       <c r="C2">
-        <v>7.078321430113848</v>
+        <v>8.672147381132019</v>
       </c>
       <c r="D2">
-        <v>7.013775197069825</v>
+        <v>6.019309926618026</v>
       </c>
       <c r="E2">
-        <v>8.288344316036845</v>
+        <v>12.0832549661489</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.118241764885938</v>
+        <v>3.69075369690394</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.22258623185827</v>
+        <v>10.28108107126131</v>
       </c>
       <c r="L2">
-        <v>6.768982093815806</v>
+        <v>9.780198257935977</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.79155790363362</v>
+        <v>29.97974670423154</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.23190987249662</v>
+        <v>13.74337575544873</v>
       </c>
       <c r="C3">
-        <v>7.064481250220498</v>
+        <v>8.662557816197673</v>
       </c>
       <c r="D3">
-        <v>6.526444156984603</v>
+        <v>5.906564960196289</v>
       </c>
       <c r="E3">
-        <v>8.155608477260184</v>
+        <v>12.08956133031867</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.124562944729862</v>
+        <v>3.693074343023472</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.54876167051308</v>
+        <v>10.14738423501728</v>
       </c>
       <c r="L3">
-        <v>6.573487216962445</v>
+        <v>9.770369215596867</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.59036827895599</v>
+        <v>30.01390643766295</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.66659243905871</v>
+        <v>13.62357093761007</v>
       </c>
       <c r="C4">
-        <v>7.056152861539669</v>
+        <v>8.6565733223243</v>
       </c>
       <c r="D4">
-        <v>6.234785767363347</v>
+        <v>5.838037020937293</v>
       </c>
       <c r="E4">
-        <v>8.078117781353505</v>
+        <v>12.09554984251218</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.128558531241158</v>
+        <v>3.69457466832144</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.11338363179027</v>
+        <v>10.06672137193081</v>
       </c>
       <c r="L4">
-        <v>6.454425724917316</v>
+        <v>9.766082296536061</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.48192552378662</v>
+        <v>30.04064867267767</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.43020644899452</v>
+        <v>13.5753011075133</v>
       </c>
       <c r="C5">
-        <v>7.052799981975877</v>
+        <v>8.65411062757912</v>
       </c>
       <c r="D5">
-        <v>6.122967834390346</v>
+        <v>5.810328858099723</v>
       </c>
       <c r="E5">
-        <v>8.047556530506922</v>
+        <v>12.09852261817932</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.130216374928578</v>
+        <v>3.695205095064807</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.930534967663608</v>
+        <v>10.03424977300274</v>
       </c>
       <c r="L5">
-        <v>6.406211431934252</v>
+        <v>9.764776653477316</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.44142956441621</v>
+        <v>30.05299454173044</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.39059606848466</v>
+        <v>13.56732108111844</v>
       </c>
       <c r="C6">
-        <v>7.052245672439035</v>
+        <v>8.653700260145877</v>
       </c>
       <c r="D6">
-        <v>6.104257976259229</v>
+        <v>5.805742307582011</v>
       </c>
       <c r="E6">
-        <v>8.042543478240015</v>
+        <v>12.09904840463654</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.130493471140013</v>
+        <v>3.695310928261838</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.899845907569976</v>
+        <v>10.02888316016758</v>
       </c>
       <c r="L6">
-        <v>6.398225648385626</v>
+        <v>9.764586551794112</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.43492542686112</v>
+        <v>30.05513195788085</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.66342860630703</v>
+        <v>13.62291763767345</v>
       </c>
       <c r="C7">
-        <v>7.056107479379787</v>
+        <v>8.656540206206618</v>
       </c>
       <c r="D7">
-        <v>6.233287378858852</v>
+        <v>5.837662402554254</v>
       </c>
       <c r="E7">
-        <v>8.077701494817365</v>
+        <v>12.09558777853193</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.128580768512502</v>
+        <v>3.694583093335327</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.11093962178823</v>
+        <v>10.06628177971173</v>
       </c>
       <c r="L7">
-        <v>6.453774177734951</v>
+        <v>9.766062899240307</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.48136455364804</v>
+        <v>30.04080931301352</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.82956385047361</v>
+        <v>13.87292683553206</v>
       </c>
       <c r="C8">
-        <v>7.073513092135064</v>
+        <v>8.668861091894268</v>
       </c>
       <c r="D8">
-        <v>6.84915349349781</v>
+        <v>5.980315753530063</v>
       </c>
       <c r="E8">
-        <v>8.241750559194886</v>
+        <v>12.08499033206998</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.120398101084721</v>
+        <v>3.691538235784533</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.99474916931797</v>
+        <v>10.23471041353696</v>
       </c>
       <c r="L8">
-        <v>6.701408293926908</v>
+        <v>9.776447484736234</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.71899846477284</v>
+        <v>29.99032660703076</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.086573721608</v>
+        <v>14.3758177311754</v>
       </c>
       <c r="C9">
-        <v>7.109078978360124</v>
+        <v>8.69224505033605</v>
       </c>
       <c r="D9">
-        <v>7.975157450295578</v>
+        <v>6.263768197616939</v>
       </c>
       <c r="E9">
-        <v>8.594812883606153</v>
+        <v>12.08098539561807</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.105218244202422</v>
+        <v>3.686163017443916</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.55614357662534</v>
+        <v>10.57453628177276</v>
       </c>
       <c r="L9">
-        <v>7.192302748032979</v>
+        <v>9.810596509211576</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.30886205447193</v>
+        <v>29.93718177317068</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.5860571546236</v>
+        <v>14.74925228347267</v>
       </c>
       <c r="C10">
-        <v>7.136230443766038</v>
+        <v>8.708936809201392</v>
       </c>
       <c r="D10">
-        <v>8.72592877356619</v>
+        <v>6.471889486011007</v>
       </c>
       <c r="E10">
-        <v>8.872677601836784</v>
+        <v>12.08824028254974</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.094532644760267</v>
+        <v>3.682573049910634</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.59940028531638</v>
+        <v>10.82761611732511</v>
       </c>
       <c r="L10">
-        <v>7.553253679373123</v>
+        <v>9.843959408931253</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.82309232755972</v>
+        <v>29.92618313212186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.23473042165</v>
+        <v>14.91921949018864</v>
       </c>
       <c r="C11">
-        <v>7.148843723091031</v>
+        <v>8.7164212644812</v>
       </c>
       <c r="D11">
-        <v>9.051423377306703</v>
+        <v>6.566058340675488</v>
       </c>
       <c r="E11">
-        <v>9.002957714083177</v>
+        <v>12.09374469136431</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.089758285014155</v>
+        <v>3.68101703330083</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.05180099611818</v>
+        <v>10.94298415852409</v>
       </c>
       <c r="L11">
-        <v>7.717012319718871</v>
+        <v>9.860900454486753</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.07565363965371</v>
+        <v>29.92728064853561</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.47564163535565</v>
+        <v>14.98353152837749</v>
       </c>
       <c r="C12">
-        <v>7.153661534516339</v>
+        <v>8.719239521413764</v>
       </c>
       <c r="D12">
-        <v>9.17242212680301</v>
+        <v>6.601606805611062</v>
       </c>
       <c r="E12">
-        <v>9.052838268249531</v>
+        <v>12.09614477522928</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.087961502419942</v>
+        <v>3.680438829744564</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.21996189086038</v>
+        <v>10.98666439810569</v>
       </c>
       <c r="L12">
-        <v>7.778925705531832</v>
+        <v>9.867566001538554</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.17405525373493</v>
+        <v>29.92857352136514</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.42396597383314</v>
+        <v>14.96968403696767</v>
       </c>
       <c r="C13">
-        <v>7.152622024033785</v>
+        <v>8.718633273402832</v>
       </c>
       <c r="D13">
-        <v>9.146462578045259</v>
+        <v>6.593956345772502</v>
       </c>
       <c r="E13">
-        <v>9.042071461326469</v>
+        <v>12.09561385645382</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.08834799673621</v>
+        <v>3.680562866744848</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.18388503092847</v>
+        <v>10.97725804785174</v>
       </c>
       <c r="L13">
-        <v>7.765596418869017</v>
+        <v>9.866119378588383</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.15273854768864</v>
+        <v>29.92825606723685</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.25464458317493</v>
+        <v>14.92451185795646</v>
       </c>
       <c r="C14">
-        <v>7.149239233415054</v>
+        <v>8.71665344549082</v>
       </c>
       <c r="D14">
-        <v>9.06142301374757</v>
+        <v>6.568985376714791</v>
       </c>
       <c r="E14">
-        <v>9.007050526728369</v>
+        <v>12.09393582891829</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.089610246610755</v>
+        <v>3.680969243493506</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.06569866092588</v>
+        <v>10.94657813653089</v>
       </c>
       <c r="L14">
-        <v>7.722108122538271</v>
+        <v>9.861443835869981</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.08369337102609</v>
+        <v>29.9273694341956</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.15031724687858</v>
+        <v>14.89683411095084</v>
       </c>
       <c r="C15">
-        <v>7.147172693563522</v>
+        <v>8.715438658157842</v>
       </c>
       <c r="D15">
-        <v>9.009041069544534</v>
+        <v>6.553674344057553</v>
       </c>
       <c r="E15">
-        <v>8.985670033276696</v>
+        <v>12.0929490588566</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.090384825105885</v>
+        <v>3.681219595217666</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.99289662296259</v>
+        <v>10.92778365448632</v>
       </c>
       <c r="L15">
-        <v>7.695456531313375</v>
+        <v>9.85861242933221</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.04176335904153</v>
+        <v>29.9269405824061</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.54299870772335</v>
+        <v>14.73814084107026</v>
       </c>
       <c r="C16">
-        <v>7.135411717646631</v>
+        <v>8.70844546825322</v>
       </c>
       <c r="D16">
-        <v>8.70433821707161</v>
+        <v>6.465721811376671</v>
       </c>
       <c r="E16">
-        <v>8.864240514699432</v>
+        <v>12.08792480549368</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.094846294855275</v>
+        <v>3.682676285328796</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.56939141983168</v>
+        <v>10.82007779682357</v>
       </c>
       <c r="L16">
-        <v>7.542539656824525</v>
+        <v>9.842887490824843</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.80696889548129</v>
+        <v>29.92623418081467</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.16191866035526</v>
+        <v>14.64076472884298</v>
       </c>
       <c r="C17">
-        <v>7.128266349860929</v>
+        <v>8.704127307300421</v>
       </c>
       <c r="D17">
-        <v>8.513338487417963</v>
+        <v>6.411608126826318</v>
       </c>
       <c r="E17">
-        <v>8.790732079674243</v>
+        <v>12.0854062815476</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.09760455184605</v>
+        <v>3.68358961790865</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.30392694836642</v>
+        <v>10.75403538459766</v>
       </c>
       <c r="L17">
-        <v>7.448590337623926</v>
+        <v>9.833690288405439</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.66776188426199</v>
+        <v>29.92736354243922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.93957787014116</v>
+        <v>14.58476874027813</v>
       </c>
       <c r="C18">
-        <v>7.124180923060107</v>
+        <v>8.701633401578658</v>
       </c>
       <c r="D18">
-        <v>8.4019682603798</v>
+        <v>6.380437868952324</v>
       </c>
       <c r="E18">
-        <v>8.748817589546993</v>
+        <v>12.08416524456063</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.099199259578269</v>
+        <v>3.684122200972728</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.14914830081795</v>
+        <v>10.71607463848067</v>
       </c>
       <c r="L18">
-        <v>7.394513485275556</v>
+        <v>9.828566562086671</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.58944291629349</v>
+        <v>29.92858739614296</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.86375301737854</v>
+        <v>14.56581352603288</v>
       </c>
       <c r="C19">
-        <v>7.122801751947865</v>
+        <v>8.700787263255751</v>
       </c>
       <c r="D19">
-        <v>8.363999100105801</v>
+        <v>6.369877541603071</v>
       </c>
       <c r="E19">
-        <v>8.734689233148814</v>
+        <v>12.08378073315558</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.099740651503049</v>
+        <v>3.684303772829598</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.09638287285003</v>
+        <v>10.70322738206123</v>
       </c>
       <c r="L19">
-        <v>7.376198356464542</v>
+        <v>9.826860409228102</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.56322337072617</v>
+        <v>29.92910039681853</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.2028110861687</v>
+        <v>14.65112979017437</v>
       </c>
       <c r="C20">
-        <v>7.129024435523011</v>
+        <v>8.70458804225586</v>
       </c>
       <c r="D20">
-        <v>8.533826913738499</v>
+        <v>6.417373613931508</v>
       </c>
       <c r="E20">
-        <v>8.798519426144544</v>
+        <v>12.08565291046319</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.097310087771236</v>
+        <v>3.683491641304684</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.33240221299248</v>
+        <v>10.76106341977744</v>
       </c>
       <c r="L20">
-        <v>7.458595786824105</v>
+        <v>9.834652162213992</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.68239907241963</v>
+        <v>29.92718388322649</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.30450599414342</v>
+        <v>14.93778190084606</v>
       </c>
       <c r="C21">
-        <v>7.150231683781676</v>
+        <v>8.717235404124308</v>
       </c>
       <c r="D21">
-        <v>9.086462118017888</v>
+        <v>6.576323271019305</v>
       </c>
       <c r="E21">
-        <v>9.017322278535625</v>
+        <v>12.09442014982489</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.089239200987282</v>
+        <v>3.68084958200101</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.10049812205829</v>
+        <v>10.95559009134754</v>
       </c>
       <c r="L21">
-        <v>7.734884609133581</v>
+        <v>9.862810389782117</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.1038979937501</v>
+        <v>29.92760605378081</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.99701500475107</v>
+        <v>15.12480105217829</v>
       </c>
       <c r="C22">
-        <v>7.164335509514971</v>
+        <v>8.725408110229406</v>
       </c>
       <c r="D22">
-        <v>9.434497606070563</v>
+        <v>6.679541263376668</v>
       </c>
       <c r="E22">
-        <v>9.163503136991627</v>
+        <v>12.10198936191314</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.084028810196831</v>
+        <v>3.679187086050999</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.58413429433887</v>
+        <v>11.08266434994473</v>
       </c>
       <c r="L22">
-        <v>7.91486988098945</v>
+        <v>9.882670868951903</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.39551026795028</v>
+        <v>29.93299497699937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.62989870431927</v>
+        <v>15.02503566867447</v>
       </c>
       <c r="C23">
-        <v>7.156784350766557</v>
+        <v>8.721054802009046</v>
       </c>
       <c r="D23">
-        <v>9.249931018207674</v>
+        <v>6.62452488876484</v>
       </c>
       <c r="E23">
-        <v>9.08519585443932</v>
+        <v>12.09778170486006</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.086804252715912</v>
+        <v>3.680068532121219</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.32767461673961</v>
+        <v>11.01486144561945</v>
       </c>
       <c r="L23">
-        <v>7.818871820992198</v>
+        <v>9.871938768736541</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.23836736074051</v>
+        <v>29.92965110780917</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.18433375838564</v>
+        <v>14.64644378205828</v>
       </c>
       <c r="C24">
-        <v>7.128681635065264</v>
+        <v>8.704379779277222</v>
       </c>
       <c r="D24">
-        <v>8.52456896479945</v>
+        <v>6.414767219869745</v>
       </c>
       <c r="E24">
-        <v>8.79499768667902</v>
+        <v>12.08554076498256</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.097443187009133</v>
+        <v>3.683535913173102</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.31953527515141</v>
+        <v>10.75788601721065</v>
       </c>
       <c r="L24">
-        <v>7.454072520259597</v>
+        <v>9.834216788388352</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.67577627027332</v>
+        <v>29.9272633173448</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.50418985389956</v>
+        <v>14.23880877677607</v>
       </c>
       <c r="C25">
-        <v>7.099290085315668</v>
+        <v>8.686003795653866</v>
       </c>
       <c r="D25">
-        <v>7.684161558785717</v>
+        <v>6.186941029675165</v>
       </c>
       <c r="E25">
-        <v>8.496007414452512</v>
+        <v>12.08027512795514</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.109238113617852</v>
+        <v>3.687553790783222</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.15208458348803</v>
+        <v>10.48183222067704</v>
       </c>
       <c r="L25">
-        <v>7.059258667365214</v>
+        <v>9.79989487893949</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.13545798517517</v>
+        <v>29.94663853101006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_226/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_226/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.94166074358692</v>
+        <v>14.16011082751619</v>
       </c>
       <c r="C2">
-        <v>8.672147381132019</v>
+        <v>7.078321430113978</v>
       </c>
       <c r="D2">
-        <v>6.019309926618026</v>
+        <v>7.013775197069817</v>
       </c>
       <c r="E2">
-        <v>12.0832549661489</v>
+        <v>8.288344316036845</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.69075369690394</v>
+        <v>2.118241764885538</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.28108107126131</v>
+        <v>11.22258623185822</v>
       </c>
       <c r="L2">
-        <v>9.780198257935977</v>
+        <v>6.768982093815798</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.97974670423154</v>
+        <v>21.79155790363368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.74337575544873</v>
+        <v>13.23190987249658</v>
       </c>
       <c r="C3">
-        <v>8.662557816197673</v>
+        <v>7.064481250220236</v>
       </c>
       <c r="D3">
-        <v>5.906564960196289</v>
+        <v>6.526444156984569</v>
       </c>
       <c r="E3">
-        <v>12.08956133031867</v>
+        <v>8.15560847726023</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.693074343023472</v>
+        <v>2.12456294472986</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.14738423501728</v>
+        <v>10.54876167051309</v>
       </c>
       <c r="L3">
-        <v>9.770369215596867</v>
+        <v>6.573487216962507</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.01390643766295</v>
+        <v>21.59036827895599</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.62357093761007</v>
+        <v>12.66659243905871</v>
       </c>
       <c r="C4">
-        <v>8.6565733223243</v>
+        <v>7.056152861539659</v>
       </c>
       <c r="D4">
-        <v>5.838037020937293</v>
+        <v>6.234785767363341</v>
       </c>
       <c r="E4">
-        <v>12.09554984251218</v>
+        <v>8.078117781353518</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.69457466832144</v>
+        <v>2.128558531241292</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.06672137193081</v>
+        <v>10.11338363179031</v>
       </c>
       <c r="L4">
-        <v>9.766082296536061</v>
+        <v>6.454425724917273</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.04064867267767</v>
+        <v>21.48192552378655</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.5753011075133</v>
+        <v>12.43020644899451</v>
       </c>
       <c r="C5">
-        <v>8.65411062757912</v>
+        <v>7.05279998197561</v>
       </c>
       <c r="D5">
-        <v>5.810328858099723</v>
+        <v>6.122967834390336</v>
       </c>
       <c r="E5">
-        <v>12.09852261817932</v>
+        <v>8.047556530506883</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.695205095064807</v>
+        <v>2.130216374928579</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.03424977300274</v>
+        <v>9.930534967663542</v>
       </c>
       <c r="L5">
-        <v>9.764776653477316</v>
+        <v>6.406211431934282</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.05299454173044</v>
+        <v>21.44142956441644</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.56732108111844</v>
+        <v>12.39059606848465</v>
       </c>
       <c r="C6">
-        <v>8.653700260145877</v>
+        <v>7.052245672439035</v>
       </c>
       <c r="D6">
-        <v>5.805742307582011</v>
+        <v>6.104257976259204</v>
       </c>
       <c r="E6">
-        <v>12.09904840463654</v>
+        <v>8.042543478239958</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.695310928261838</v>
+        <v>2.130493471140014</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.02888316016758</v>
+        <v>9.899845907569995</v>
       </c>
       <c r="L6">
-        <v>9.764586551794112</v>
+        <v>6.398225648385599</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.05513195788085</v>
+        <v>21.43492542686116</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.62291763767345</v>
+        <v>12.66342860630703</v>
       </c>
       <c r="C7">
-        <v>8.656540206206618</v>
+        <v>7.056107479379663</v>
       </c>
       <c r="D7">
-        <v>5.837662402554254</v>
+        <v>6.233287378858851</v>
       </c>
       <c r="E7">
-        <v>12.09558777853193</v>
+        <v>8.07770149481736</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.694583093335327</v>
+        <v>2.128580768512636</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.06628177971173</v>
+        <v>10.11093962178824</v>
       </c>
       <c r="L7">
-        <v>9.766062899240307</v>
+        <v>6.453774177734928</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.04080931301352</v>
+        <v>21.48136455364795</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.87292683553206</v>
+        <v>13.8295638504736</v>
       </c>
       <c r="C8">
-        <v>8.668861091894268</v>
+        <v>7.073513092134401</v>
       </c>
       <c r="D8">
-        <v>5.980315753530063</v>
+        <v>6.849153493497798</v>
       </c>
       <c r="E8">
-        <v>12.08499033206998</v>
+        <v>8.241750559194834</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.691538235784533</v>
+        <v>2.120398101084318</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.23471041353696</v>
+        <v>10.99474916931783</v>
       </c>
       <c r="L8">
-        <v>9.776447484736234</v>
+        <v>6.701408293926946</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.99032660703076</v>
+        <v>21.71899846477303</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.3758177311754</v>
+        <v>16.08657372160803</v>
       </c>
       <c r="C9">
-        <v>8.69224505033605</v>
+        <v>7.109078978360126</v>
       </c>
       <c r="D9">
-        <v>6.263768197616939</v>
+        <v>7.97515745029562</v>
       </c>
       <c r="E9">
-        <v>12.08098539561807</v>
+        <v>8.594812883606096</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.686163017443916</v>
+        <v>2.105218244202153</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.57453628177276</v>
+        <v>12.55614357662537</v>
       </c>
       <c r="L9">
-        <v>9.810596509211576</v>
+        <v>7.192302748032946</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.93718177317068</v>
+        <v>22.30886205447184</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.74925228347267</v>
+        <v>17.58605715462368</v>
       </c>
       <c r="C10">
-        <v>8.708936809201392</v>
+        <v>7.136230443765903</v>
       </c>
       <c r="D10">
-        <v>6.471889486011007</v>
+        <v>8.725928773566096</v>
       </c>
       <c r="E10">
-        <v>12.08824028254974</v>
+        <v>8.872677601836774</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.682573049910634</v>
+        <v>2.094532644760133</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.82761611732511</v>
+        <v>13.59940028531645</v>
       </c>
       <c r="L10">
-        <v>9.843959408931253</v>
+        <v>7.553253679373115</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.92618313212186</v>
+        <v>22.82309232755969</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.91921949018864</v>
+        <v>18.23473042165002</v>
       </c>
       <c r="C11">
-        <v>8.7164212644812</v>
+        <v>7.14884372309115</v>
       </c>
       <c r="D11">
-        <v>6.566058340675488</v>
+        <v>9.051423377306765</v>
       </c>
       <c r="E11">
-        <v>12.09374469136431</v>
+        <v>9.002957714083127</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.68101703330083</v>
+        <v>2.089758285014153</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.94298415852409</v>
+        <v>14.0518009961182</v>
       </c>
       <c r="L11">
-        <v>9.860900454486753</v>
+        <v>7.717012319718829</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.92728064853561</v>
+        <v>23.07565363965371</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.98353152837749</v>
+        <v>18.47564163535567</v>
       </c>
       <c r="C12">
-        <v>8.719239521413764</v>
+        <v>7.153661534516595</v>
       </c>
       <c r="D12">
-        <v>6.601606805611062</v>
+        <v>9.172422126803097</v>
       </c>
       <c r="E12">
-        <v>12.09614477522928</v>
+        <v>9.052838268249547</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.680438829744564</v>
+        <v>2.087961502419809</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.98666439810569</v>
+        <v>14.2199618908604</v>
       </c>
       <c r="L12">
-        <v>9.867566001538554</v>
+        <v>7.778925705531853</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.92857352136514</v>
+        <v>23.17405525373482</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.96968403696767</v>
+        <v>18.42396597383316</v>
       </c>
       <c r="C13">
-        <v>8.718633273402832</v>
+        <v>7.152622024033652</v>
       </c>
       <c r="D13">
-        <v>6.593956345772502</v>
+        <v>9.14646257804538</v>
       </c>
       <c r="E13">
-        <v>12.09561385645382</v>
+        <v>9.042071461326449</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.680562866744848</v>
+        <v>2.088347996735944</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.97725804785174</v>
+        <v>14.18388503092848</v>
       </c>
       <c r="L13">
-        <v>9.866119378588383</v>
+        <v>7.765596418869007</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.92825606723685</v>
+        <v>23.15273854768856</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.92451185795646</v>
+        <v>18.25464458317493</v>
       </c>
       <c r="C14">
-        <v>8.71665344549082</v>
+        <v>7.149239233415328</v>
       </c>
       <c r="D14">
-        <v>6.568985376714791</v>
+        <v>9.061423013747595</v>
       </c>
       <c r="E14">
-        <v>12.09393582891829</v>
+        <v>9.007050526728461</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.680969243493506</v>
+        <v>2.089610246610887</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.94657813653089</v>
+        <v>14.06569866092591</v>
       </c>
       <c r="L14">
-        <v>9.861443835869981</v>
+        <v>7.722108122538304</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.9273694341956</v>
+        <v>23.08369337102608</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.89683411095084</v>
+        <v>18.15031724687856</v>
       </c>
       <c r="C15">
-        <v>8.715438658157842</v>
+        <v>7.147172693563528</v>
       </c>
       <c r="D15">
-        <v>6.553674344057553</v>
+        <v>9.009041069544512</v>
       </c>
       <c r="E15">
-        <v>12.0929490588566</v>
+        <v>8.985670033276689</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.681219595217666</v>
+        <v>2.090384825105751</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.92778365448632</v>
+        <v>13.99289662296258</v>
       </c>
       <c r="L15">
-        <v>9.85861242933221</v>
+        <v>7.695456531313362</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.9269405824061</v>
+        <v>23.04176335904151</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.73814084107026</v>
+        <v>17.54299870772337</v>
       </c>
       <c r="C16">
-        <v>8.70844546825322</v>
+        <v>7.135411717646624</v>
       </c>
       <c r="D16">
-        <v>6.465721811376671</v>
+        <v>8.704338217071642</v>
       </c>
       <c r="E16">
-        <v>12.08792480549368</v>
+        <v>8.8642405146994</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.682676285328796</v>
+        <v>2.094846294855407</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.82007779682357</v>
+        <v>13.5693914198317</v>
       </c>
       <c r="L16">
-        <v>9.842887490824843</v>
+        <v>7.542539656824497</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.92623418081467</v>
+        <v>22.80696889548119</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.64076472884298</v>
+        <v>17.16191866035525</v>
       </c>
       <c r="C17">
-        <v>8.704127307300421</v>
+        <v>7.128266349860665</v>
       </c>
       <c r="D17">
-        <v>6.411608126826318</v>
+        <v>8.513338487418027</v>
       </c>
       <c r="E17">
-        <v>12.0854062815476</v>
+        <v>8.790732079674189</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.68358961790865</v>
+        <v>2.097604551846321</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.75403538459766</v>
+        <v>13.30392694836639</v>
       </c>
       <c r="L17">
-        <v>9.833690288405439</v>
+        <v>7.448590337623926</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.92736354243922</v>
+        <v>22.66776188426216</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.58476874027813</v>
+        <v>16.93957787014114</v>
       </c>
       <c r="C18">
-        <v>8.701633401578658</v>
+        <v>7.124180923060369</v>
       </c>
       <c r="D18">
-        <v>6.380437868952324</v>
+        <v>8.401968260379721</v>
       </c>
       <c r="E18">
-        <v>12.08416524456063</v>
+        <v>8.748817589546981</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.684122200972728</v>
+        <v>2.099199259578403</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.71607463848067</v>
+        <v>13.14914830081797</v>
       </c>
       <c r="L18">
-        <v>9.828566562086671</v>
+        <v>7.394513485275538</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.92858739614296</v>
+        <v>22.58944291629348</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.56581352603288</v>
+        <v>16.86375301737851</v>
       </c>
       <c r="C19">
-        <v>8.700787263255751</v>
+        <v>7.12280175194812</v>
       </c>
       <c r="D19">
-        <v>6.369877541603071</v>
+        <v>8.363999100105771</v>
       </c>
       <c r="E19">
-        <v>12.08378073315558</v>
+        <v>8.734689233148901</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.684303772829598</v>
+        <v>2.099740651503316</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.70322738206123</v>
+        <v>13.09638287285006</v>
       </c>
       <c r="L19">
-        <v>9.826860409228102</v>
+        <v>7.376198356464545</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.92910039681853</v>
+        <v>22.56322337072614</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.65112979017437</v>
+        <v>17.20281108616873</v>
       </c>
       <c r="C20">
-        <v>8.70458804225586</v>
+        <v>7.12902443552315</v>
       </c>
       <c r="D20">
-        <v>6.417373613931508</v>
+        <v>8.533826913738546</v>
       </c>
       <c r="E20">
-        <v>12.08565291046319</v>
+        <v>8.798519426144617</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.683491641304684</v>
+        <v>2.097310087771635</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.76106341977744</v>
+        <v>13.33240221299252</v>
       </c>
       <c r="L20">
-        <v>9.834652162213992</v>
+        <v>7.458595786824169</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.92718388322649</v>
+        <v>22.68239907241948</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.93778190084606</v>
+        <v>18.30450599414346</v>
       </c>
       <c r="C21">
-        <v>8.717235404124308</v>
+        <v>7.150231683781673</v>
       </c>
       <c r="D21">
-        <v>6.576323271019305</v>
+        <v>9.086462118017941</v>
       </c>
       <c r="E21">
-        <v>12.09442014982489</v>
+        <v>9.017322278535632</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.68084958200101</v>
+        <v>2.089239200987283</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.95559009134754</v>
+        <v>14.10049812205831</v>
       </c>
       <c r="L21">
-        <v>9.862810389782117</v>
+        <v>7.7348846091336</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.92760605378081</v>
+        <v>23.10389799375005</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.12480105217829</v>
+        <v>18.99701500475107</v>
       </c>
       <c r="C22">
-        <v>8.725408110229406</v>
+        <v>7.164335509515227</v>
       </c>
       <c r="D22">
-        <v>6.679541263376668</v>
+        <v>9.434497606070549</v>
       </c>
       <c r="E22">
-        <v>12.10198936191314</v>
+        <v>9.163503136991661</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.679187086050999</v>
+        <v>2.084028810196696</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.08266434994473</v>
+        <v>14.5841342943389</v>
       </c>
       <c r="L22">
-        <v>9.882670868951903</v>
+        <v>7.91486988098945</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.93299497699937</v>
+        <v>23.39551026795022</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.02503566867447</v>
+        <v>18.62989870431932</v>
       </c>
       <c r="C23">
-        <v>8.721054802009046</v>
+        <v>7.156784350766287</v>
       </c>
       <c r="D23">
-        <v>6.62452488876484</v>
+        <v>9.249931018207656</v>
       </c>
       <c r="E23">
-        <v>12.09778170486006</v>
+        <v>9.085195854439245</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.680068532121219</v>
+        <v>2.08680425271578</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.01486144561945</v>
+        <v>14.32767461673963</v>
       </c>
       <c r="L23">
-        <v>9.871938768736541</v>
+        <v>7.818871820992178</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.92965110780917</v>
+        <v>23.23836736074046</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.64644378205828</v>
+        <v>17.18433375838564</v>
       </c>
       <c r="C24">
-        <v>8.704379779277222</v>
+        <v>7.128681635065137</v>
       </c>
       <c r="D24">
-        <v>6.414767219869745</v>
+        <v>8.524568964799474</v>
       </c>
       <c r="E24">
-        <v>12.08554076498256</v>
+        <v>8.794997686678981</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.683535913173102</v>
+        <v>2.097443187009267</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.75788601721065</v>
+        <v>13.31953527515144</v>
       </c>
       <c r="L24">
-        <v>9.834216788388352</v>
+        <v>7.454072520259595</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.9272633173448</v>
+        <v>22.67577627027324</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.23880877677607</v>
+        <v>15.50418985389959</v>
       </c>
       <c r="C25">
-        <v>8.686003795653866</v>
+        <v>7.099290085315539</v>
       </c>
       <c r="D25">
-        <v>6.186941029675165</v>
+        <v>7.684161558785801</v>
       </c>
       <c r="E25">
-        <v>12.08027512795514</v>
+        <v>8.496007414452471</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.687553790783222</v>
+        <v>2.10923811361785</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.48183222067704</v>
+        <v>12.15208458348802</v>
       </c>
       <c r="L25">
-        <v>9.79989487893949</v>
+        <v>7.059258667365227</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.94663853101006</v>
+        <v>22.13545798517516</v>
       </c>
     </row>
   </sheetData>
